--- a/aula02/Lista02.xlsx
+++ b/aula02/Lista02.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\delineamentos22\aula02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\delineamentos22\aula02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exercico01" sheetId="1" r:id="rId1"/>
+    <sheet name="Exercicio02" sheetId="2" r:id="rId2"/>
+    <sheet name="Exercicio03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,10 +25,140 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>yp</t>
+  </si>
+  <si>
+    <t>y-yp</t>
+  </si>
+  <si>
+    <t>(y-yp)²</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Fontes de variação</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>QM</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Modelo (reta)</t>
+  </si>
+  <si>
+    <t>Desvio</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>coef angular</t>
+  </si>
+  <si>
+    <t>coef linear</t>
+  </si>
+  <si>
+    <t>Ainda existe a possibilidade de ajuste</t>
+  </si>
+  <si>
+    <t>Tratamento</t>
+  </si>
+  <si>
+    <t>TRAT</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Y²</t>
+  </si>
+  <si>
+    <t>Mod_media</t>
+  </si>
+  <si>
+    <t>Desvio²</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQTr = </t>
+  </si>
+  <si>
+    <t>Residuo</t>
+  </si>
+  <si>
+    <t>SQD =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQT = </t>
+  </si>
+  <si>
+    <t>Mod_reta</t>
+  </si>
+  <si>
+    <t>Reta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQreta = </t>
+  </si>
+  <si>
+    <t>Falta de ajuste</t>
+  </si>
+  <si>
+    <t>Erro Puro</t>
+  </si>
+  <si>
+    <t>R²</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -50,12 +182,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +239,2042 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Exercico01!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Exercico01!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Exercico01!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1634678192"/>
+        <c:axId val="1562227008"/>
+      </c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Exercico01!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Exercico01!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Exercico01!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1634678192"/>
+        <c:axId val="1562227008"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="1634678192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562227008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1562227008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1634678192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Exercicio02!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Exercicio02!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Exercicio02!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1633150016"/>
+        <c:axId val="1633148928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1633150016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633148928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1633148928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633150016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>260684</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>551447</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175961</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>29193</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>5381</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,9 +2540,1471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>$B$2+$B$1*A4</f>
+        <v>2.81</v>
+      </c>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="E4">
+        <f>D4*D4</f>
+        <v>3.6099999999999979E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C9" si="0">$B$2+$B$1*A5</f>
+        <v>5.35</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D9" si="1">B5-C5</f>
+        <v>-1.3499999999999996</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E9" si="2">D5*D5</f>
+        <v>1.8224999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7.8900000000000006</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6.1099999999999994</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>37.33209999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>10.43</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.57000000000000028</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.3249000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>12.969999999999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>3.0300000000000011</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>9.1809000000000065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>15.51</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-6.51</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>42.380099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f>SUM(E4:E9)</f>
+        <v>91.076599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f>L17-L16</f>
+        <v>46.423400000000001</v>
+      </c>
+      <c r="M15">
+        <f>L15/K15</f>
+        <v>46.423400000000001</v>
+      </c>
+      <c r="N15">
+        <f>M15/M16</f>
+        <v>2.0388727730284177</v>
+      </c>
+      <c r="O15">
+        <f>L15/L17</f>
+        <v>0.3376247272727273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <f>J12</f>
+        <v>91.076599999999999</v>
+      </c>
+      <c r="M16">
+        <f>L16/K16</f>
+        <v>22.76915</v>
+      </c>
+    </row>
+    <row r="17" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
+        <f>SUMSQ(B4:B9)-SUM(B4:B9)^2/6</f>
+        <v>137.5</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="19" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2*D2</f>
+        <v>49</v>
+      </c>
+      <c r="F2" s="3">
+        <f>AVERAGE($D$2:$D$6)</f>
+        <v>6</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2-D2</f>
+        <v>-1</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2*G2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E16" si="0">D3*D3</f>
+        <v>49</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F17" si="1">AVERAGE($D$2:$D$6)</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G16" si="2">F3-D3</f>
+        <v>-1</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H16" si="3">G3*G3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F7" s="6">
+        <f>AVERAGE($D$7:$D$11)</f>
+        <v>8</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:F16" si="4">AVERAGE($D$7:$D$11)</f>
+        <v>8</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="F12" s="6">
+        <f>AVERAGE($D$12:$D$16)</f>
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13:F16" si="5">AVERAGE($D$12:$D$16)</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>SUM(D2:D16)</f>
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E2:E16)</f>
+        <v>1012</v>
+      </c>
+      <c r="H17">
+        <f>SUM(H2:H16)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3">
+        <f>C21-C20</f>
+        <v>40</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <f>C19/D19</f>
+        <v>20</v>
+      </c>
+      <c r="F19" s="3">
+        <f>E19/E20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4">
+        <f>H17</f>
+        <v>12</v>
+      </c>
+      <c r="D20" s="5">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <f>C20/D20</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1">
+        <f>E17-D17^2/15</f>
+        <v>52</v>
+      </c>
+      <c r="D21" s="7">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3">
+        <f>D42*D42</f>
+        <v>49</v>
+      </c>
+      <c r="F42" s="3">
+        <f>4+B42</f>
+        <v>6</v>
+      </c>
+      <c r="G42" s="3">
+        <f>F42-D42</f>
+        <v>-1</v>
+      </c>
+      <c r="H42" s="3">
+        <f>G42*G42</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6">
+        <v>7</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" ref="E43:E56" si="6">D43*D43</f>
+        <v>49</v>
+      </c>
+      <c r="F43" s="3">
+        <f>4+B43</f>
+        <v>6</v>
+      </c>
+      <c r="G43" s="6">
+        <f>F43-D43</f>
+        <v>-1</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" ref="H43:H56" si="7">G43*G43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6">
+        <v>2</v>
+      </c>
+      <c r="C44" s="6">
+        <v>3</v>
+      </c>
+      <c r="D44" s="6">
+        <v>6</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="F44" s="3">
+        <f>4+B44</f>
+        <v>6</v>
+      </c>
+      <c r="G44" s="6">
+        <f>F44-D44</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>1</v>
+      </c>
+      <c r="B45" s="6">
+        <v>2</v>
+      </c>
+      <c r="C45" s="6">
+        <v>4</v>
+      </c>
+      <c r="D45" s="6">
+        <v>5</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" ref="F43:F56" si="8">4+B45</f>
+        <v>6</v>
+      </c>
+      <c r="G45" s="6">
+        <f>F45-D45</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6">
+        <v>2</v>
+      </c>
+      <c r="C46" s="6">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6">
+        <v>5</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="G46" s="6">
+        <f>F46-D46</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>7</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" ref="G43:G56" si="9">F47-D47</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>2</v>
+      </c>
+      <c r="B48" s="6">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6">
+        <v>8</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>2</v>
+      </c>
+      <c r="B49" s="6">
+        <v>4</v>
+      </c>
+      <c r="C49" s="6">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6">
+        <v>7</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>2</v>
+      </c>
+      <c r="B50" s="6">
+        <v>4</v>
+      </c>
+      <c r="C50" s="6">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6">
+        <v>9</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H50" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>2</v>
+      </c>
+      <c r="B51" s="6">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
+        <v>9</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6">
+        <v>6</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>11</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H52" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>3</v>
+      </c>
+      <c r="B53" s="6">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" s="6">
+        <v>9</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>3</v>
+      </c>
+      <c r="B54" s="6">
+        <v>6</v>
+      </c>
+      <c r="C54" s="6">
+        <v>3</v>
+      </c>
+      <c r="D54" s="6">
+        <v>9</v>
+      </c>
+      <c r="E54" s="6">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6">
+        <v>6</v>
+      </c>
+      <c r="C55" s="6">
+        <v>4</v>
+      </c>
+      <c r="D55" s="6">
+        <v>10</v>
+      </c>
+      <c r="E55" s="6">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4">
+        <v>6</v>
+      </c>
+      <c r="C56" s="4">
+        <v>5</v>
+      </c>
+      <c r="D56" s="4">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G56" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f>SUM(D42:D56)</f>
+        <v>120</v>
+      </c>
+      <c r="E57">
+        <f>SUM(E42:E56)</f>
+        <v>1012</v>
+      </c>
+      <c r="H57">
+        <f>SUM(H42:H56)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="3">
+        <f>C62-C61-C60</f>
+        <v>40</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <f>C59/D59</f>
+        <v>40</v>
+      </c>
+      <c r="F59" s="3">
+        <f>E59/E61</f>
+        <v>40</v>
+      </c>
+      <c r="G59">
+        <f>C59/C62</f>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <f>H57-C61</f>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f>D61-D59</f>
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f>C60/C62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="4">
+        <f>H57</f>
+        <v>12</v>
+      </c>
+      <c r="D61" s="5">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4">
+        <f>C61/D61</f>
+        <v>1</v>
+      </c>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="1">
+        <f>E57-D57^2/15</f>
+        <v>52</v>
+      </c>
+      <c r="D62" s="7">
+        <v>14</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/aula02/Lista02.xlsx
+++ b/aula02/Lista02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Exercico01" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>x</t>
   </si>
@@ -144,11 +144,36 @@
   <si>
     <t>R²</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Mod_quadratico</t>
+  </si>
+  <si>
+    <t>Parábola</t>
+  </si>
+  <si>
+    <t>Falta Ajuste</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>=-b/2/a</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -224,6 +249,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,8 +382,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1634678192"/>
-        <c:axId val="1562227008"/>
+        <c:axId val="-246912064"/>
+        <c:axId val="-246911520"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -459,11 +488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1634678192"/>
-        <c:axId val="1562227008"/>
+        <c:axId val="-246912064"/>
+        <c:axId val="-246911520"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="1634678192"/>
+        <c:axId val="-246912064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +524,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -562,7 +590,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1562227008"/>
+        <c:crossAx val="-246911520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -570,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1562227008"/>
+        <c:axId val="-246911520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,7 +630,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -669,7 +696,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1634678192"/>
+        <c:crossAx val="-246912064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -733,7 +760,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -923,11 +949,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1633150016"/>
-        <c:axId val="1633148928"/>
+        <c:axId val="-246925120"/>
+        <c:axId val="-246922400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1633150016"/>
+        <c:axId val="-246925120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,12 +1010,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633148928"/>
+        <c:crossAx val="-246922400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1633148928"/>
+        <c:axId val="-246922400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1072,388 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633150016"/>
+        <c:crossAx val="-246925120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Exercicio03!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Exercicio03!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Exercicio03!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-246923488"/>
+        <c:axId val="-246921856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-246923488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-246921856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-246921856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-246923488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1175,6 +1582,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1692,6 +2139,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2256,6 +3219,41 @@
       <xdr:colOff>185057</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>5381</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109437</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>413426</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2815,8 +3813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A46" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,7 +3896,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F17" si="1">AVERAGE($D$2:$D$6)</f>
+        <f t="shared" ref="F3:F6" si="1">AVERAGE($D$2:$D$6)</f>
         <v>6</v>
       </c>
       <c r="G3" s="6">
@@ -3048,7 +4046,7 @@
         <v>64</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8:F16" si="4">AVERAGE($D$7:$D$11)</f>
+        <f t="shared" ref="F8:F11" si="4">AVERAGE($D$7:$D$11)</f>
         <v>8</v>
       </c>
       <c r="G8" s="6">
@@ -3530,7 +4528,7 @@
         <v>25</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" ref="F43:F56" si="8">4+B45</f>
+        <f t="shared" ref="F45:F56" si="8">4+B45</f>
         <v>6</v>
       </c>
       <c r="G45" s="6">
@@ -3594,7 +4592,7 @@
         <v>8</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" ref="G43:G56" si="9">F47-D47</f>
+        <f t="shared" ref="G47:G56" si="9">F47-D47</f>
         <v>1</v>
       </c>
       <c r="H47" s="6">
@@ -4000,14 +4998,781 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>B2*B2</f>
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <f>B2*0.5+B3*0.5</f>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f>B2-D2</f>
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <f>E2*E2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">B3*B3</f>
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">B3-D3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="2">E3*E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D8" si="3">B4*0.5+B5*0.5</f>
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <f>D4</f>
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <f>D6</f>
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D9">
+        <f>D8</f>
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>SUM(B2:B9)</f>
+        <v>112</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>1744</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F2:F9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C15-C13</f>
+        <v>168</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <f>C12/D12</f>
+        <v>56</v>
+      </c>
+      <c r="F12" s="3">
+        <f>E12/E13</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4">
+        <f>F10</f>
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <f>C13/D13</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6">
+        <f>C10-B10*B10/8</f>
+        <v>176</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <f>B33*B33</f>
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <f xml:space="preserve"> 7 + 14*A33  - 4*A33^2</f>
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <f>B33-D33</f>
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <f>E33*E33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C40" si="4">B34*B34</f>
+        <v>64</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D40" si="5" xml:space="preserve"> 7 + 14*A34  - 4*A34^2</f>
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E40" si="6">B34-D34</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F40" si="7">E34*E34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>324</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>324</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>SUM(B33:B40)</f>
+        <v>112</v>
+      </c>
+      <c r="C41">
+        <f>SUM(C33:C40)</f>
+        <v>1744</v>
+      </c>
+      <c r="F41">
+        <f>SUM(F33:F40)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="3">
+        <f>C46-C44-C45</f>
+        <v>168</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <f>C43/D43</f>
+        <v>84</v>
+      </c>
+      <c r="F43" s="11">
+        <f>E43/E45</f>
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <f>C43/C46</f>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="6">
+        <f>C45-F41</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="8">
+        <v>5</v>
+      </c>
+      <c r="E44" s="6">
+        <f>C44/D44</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6">
+        <f>F10</f>
+        <v>8</v>
+      </c>
+      <c r="D45" s="6">
+        <v>4</v>
+      </c>
+      <c r="E45" s="10">
+        <f>C45/D45</f>
+        <v>2</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="1">
+        <f>C41-B41*B41/8</f>
+        <v>176</v>
+      </c>
+      <c r="D46" s="7">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48">
+        <f>-14/2/(-4)</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <f>A67*A67</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B74" si="8">A68*A68</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>